--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A23758-65A2-4329-AF56-DB51E72E008A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="219">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -593,10 +592,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>IsDay15Exclude3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>IsDay15Exclude4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -624,11 +619,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">計算業績排除商品別(Y/Nnull)
-</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>是否屬排徐部門別(Y/Null)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -642,22 +632,6 @@
   </si>
   <si>
     <t>是否屬排徐部門別(Y/Null)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否屬15日薪被排除(Y/Null/E-屬15日薪未設排除條件)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsCoorgnizerDay15</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -900,11 +874,40 @@
 寫入介紹人業績明細檔時，代碼(2&amp;B)之是否計件寫入(代碼1&amp;A)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>是否屬15日薪被排除(Y/Null)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屬15日薪被排除(Y/Null)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屬15日薪被排除(Y/Null)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屬15日薪被排除(Y/Null)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDay15Exclude3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCoorgnizerDay15</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">計算業績排除商品別(Y/Null)
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1230,12 +1233,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="6"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,23 +1329,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1378,23 +1364,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1570,11 +1539,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1596,7 +1565,7 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>105</v>
@@ -1624,7 +1593,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>18</v>
@@ -1705,13 +1674,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="25"/>
@@ -1734,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1805,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
@@ -1825,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1850,7 +1819,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>126</v>
@@ -1947,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>70</v>
@@ -1967,7 +1936,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>79</v>
@@ -2018,10 +1987,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>95</v>
@@ -2030,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2161,10 +2130,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>25</v>
@@ -2176,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -2187,7 +2156,7 @@
         <v>116</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>25</v>
@@ -2199,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2207,10 +2176,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>197</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>25</v>
@@ -2222,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2245,7 +2214,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2253,10 +2222,10 @@
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>25</v>
@@ -2268,7 +2237,7 @@
         <v>2</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2291,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2299,10 +2268,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>25</v>
@@ -2314,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -2325,7 +2294,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>25</v>
@@ -2337,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2348,7 +2317,7 @@
         <v>122</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>25</v>
@@ -2360,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -2383,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2406,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -2417,7 +2386,7 @@
         <v>120</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D44" s="23" t="s">
         <v>25</v>
@@ -2429,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2480,7 +2449,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>25</v>
@@ -2492,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2500,10 +2469,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>25</v>
@@ -2521,10 +2490,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>25</v>
@@ -2536,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -2547,7 +2516,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>25</v>
@@ -2559,7 +2528,7 @@
         <v>2</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2601,19 +2570,19 @@
         <v>43</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E53" s="28">
         <v>1</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -2641,10 +2610,10 @@
         <v>45</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D55" s="23" t="s">
         <v>88</v>
@@ -2658,10 +2627,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D56" s="23" t="s">
         <v>88</v>
@@ -2678,7 +2647,7 @@
         <v>128</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="23" t="s">
         <v>34</v>
@@ -2698,7 +2667,7 @@
         <v>129</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>34</v>
@@ -2718,7 +2687,7 @@
         <v>130</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="23" t="s">
         <v>34</v>
@@ -2738,7 +2707,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>75</v>
@@ -2758,7 +2727,7 @@
         <v>132</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="23" t="s">
         <v>34</v>
@@ -2778,7 +2747,7 @@
         <v>138</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>88</v>
@@ -2798,7 +2767,7 @@
         <v>139</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>88</v>
@@ -2818,7 +2787,7 @@
         <v>140</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>88</v>
@@ -2838,7 +2807,7 @@
         <v>141</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D65" s="23" t="s">
         <v>88</v>
@@ -2858,7 +2827,7 @@
         <v>142</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D66" s="23" t="s">
         <v>88</v>
@@ -2867,7 +2836,7 @@
         <v>1</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2878,7 +2847,7 @@
         <v>143</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>89</v>
@@ -2887,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2898,7 +2867,7 @@
         <v>144</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>89</v>
@@ -2907,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2915,10 +2884,10 @@
         <v>59</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>89</v>
@@ -2935,10 +2904,10 @@
         <v>60</v>
       </c>
       <c r="B70" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>89</v>
@@ -2955,10 +2924,10 @@
         <v>61</v>
       </c>
       <c r="B71" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>89</v>
@@ -2967,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3051,7 +3020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3113,21 +3082,21 @@
     </row>
     <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -1542,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3025,7 +3025,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5712194-B75F-4925-9E62-A168F6051587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -907,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1233,12 +1234,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="3"/>
-    <cellStyle name="一般 2 4" xfId="4"/>
-    <cellStyle name="一般 2 5" xfId="5"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,6 +1330,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1364,6 +1382,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1539,27 +1574,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="57.5546875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.6640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.08984375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="57.54296875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.6328125" style="30" customWidth="1"/>
     <col min="8" max="8" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.44140625" style="11"/>
+    <col min="9" max="16384" width="21.453125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1609,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
@@ -1587,7 +1622,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
@@ -1602,7 +1637,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1648,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1659,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
@@ -1635,7 +1670,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1681,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.4">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1686,7 +1721,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1706,7 +1741,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1723,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1740,7 +1775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1757,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -1777,7 +1812,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="62" x14ac:dyDescent="0.4">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1797,7 +1832,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1814,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="22">
         <v>9</v>
       </c>
@@ -1837,7 +1872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="22">
         <v>10</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="22">
         <v>11</v>
       </c>
@@ -1871,7 +1906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="22">
         <v>12</v>
       </c>
@@ -1891,7 +1926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="22">
         <v>13</v>
       </c>
@@ -1911,7 +1946,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="22">
         <v>14</v>
       </c>
@@ -1931,7 +1966,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="22">
         <v>15</v>
       </c>
@@ -1948,7 +1983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="22">
         <v>16</v>
       </c>
@@ -1965,7 +2000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="22">
         <v>17</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="22">
         <v>18</v>
       </c>
@@ -2002,7 +2037,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="22">
         <v>19</v>
       </c>
@@ -2022,7 +2057,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="22">
         <v>20</v>
       </c>
@@ -2042,7 +2077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="22">
         <v>21</v>
       </c>
@@ -2062,7 +2097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="22">
         <v>22</v>
       </c>
@@ -2085,7 +2120,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="22">
         <v>23</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="22">
         <v>24</v>
       </c>
@@ -2125,7 +2160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="22">
         <v>25</v>
       </c>
@@ -2148,7 +2183,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A34" s="22">
         <v>26</v>
       </c>
@@ -2171,7 +2206,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="22">
         <v>27</v>
       </c>
@@ -2194,7 +2229,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -2217,7 +2252,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="22">
         <v>29</v>
       </c>
@@ -2240,7 +2275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -2263,7 +2298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="22">
         <v>31</v>
       </c>
@@ -2286,7 +2321,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="31" x14ac:dyDescent="0.4">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -2309,7 +2344,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="22">
         <v>33</v>
       </c>
@@ -2332,7 +2367,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="22">
         <v>35</v>
       </c>
@@ -2378,7 +2413,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="31" x14ac:dyDescent="0.4">
       <c r="A44" s="22">
         <v>36</v>
       </c>
@@ -2401,7 +2436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="22">
         <v>37</v>
       </c>
@@ -2421,7 +2456,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -2441,7 +2476,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
       <c r="A47" s="22">
         <v>39</v>
       </c>
@@ -2464,7 +2499,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="22">
         <v>40</v>
       </c>
@@ -2485,7 +2520,7 @@
       </c>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="22">
         <v>41</v>
       </c>
@@ -2508,7 +2543,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="22">
         <v>42</v>
       </c>
@@ -2531,7 +2566,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="22">
         <v>62</v>
       </c>
@@ -2548,7 +2583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="22">
         <v>63</v>
       </c>
@@ -2565,7 +2600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="22">
         <v>43</v>
       </c>
@@ -2585,7 +2620,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="22">
         <v>44</v>
       </c>
@@ -2605,7 +2640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="22">
         <v>45</v>
       </c>
@@ -2622,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="22">
         <v>46</v>
       </c>
@@ -2639,7 +2674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="22">
         <v>47</v>
       </c>
@@ -2659,7 +2694,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22">
         <v>48</v>
       </c>
@@ -2679,7 +2714,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="22">
         <v>49</v>
       </c>
@@ -2699,7 +2734,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="22">
         <v>50</v>
       </c>
@@ -2719,7 +2754,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="22">
         <v>51</v>
       </c>
@@ -2739,7 +2774,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="22">
         <v>52</v>
       </c>
@@ -2759,7 +2794,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="22">
         <v>53</v>
       </c>
@@ -2779,7 +2814,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="22">
         <v>54</v>
       </c>
@@ -2799,7 +2834,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="22">
         <v>55</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="22">
         <v>56</v>
       </c>
@@ -2839,7 +2874,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="22">
         <v>57</v>
       </c>
@@ -2859,7 +2894,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="22">
         <v>58</v>
       </c>
@@ -2879,7 +2914,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="22">
         <v>59</v>
       </c>
@@ -2899,7 +2934,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="22">
         <v>60</v>
       </c>
@@ -2919,7 +2954,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="22">
         <v>61</v>
       </c>
@@ -2939,7 +2974,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="22">
         <v>64</v>
       </c>
@@ -2954,7 +2989,7 @@
       </c>
       <c r="E72" s="28"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="22">
         <v>65</v>
       </c>
@@ -2971,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="22">
         <v>66</v>
       </c>
@@ -2986,7 +3021,7 @@
       </c>
       <c r="E74" s="28"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="22">
         <v>67</v>
       </c>
@@ -3020,7 +3055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3028,15 +3063,15 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3047,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -3058,7 +3093,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -3069,7 +3104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -3080,7 +3115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>164</v>
       </c>
@@ -3091,7 +3126,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>205</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5712194-B75F-4925-9E62-A168F6051587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -696,10 +695,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>業績重算時是否以新員工資料更新介紹人所屬單位Y/N/null</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>單位、區部、部室及處經理代號、區經理代號、部經理代號</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -904,11 +899,19 @@
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>業績重算註記
+Y:業績重算時以新員工資料更新介紹人所屬單位及介紹人、協辦是否為15日薪
+R:資料轉換業績重算(以新員工資料更新介紹人、協辦是否為15日薪)
+N:業績重算時不以新員工資料更新
+NULL:正常交易</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1234,12 +1237,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 2 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="一般 2 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="6"/>
+    <cellStyle name="一般 2 3" xfId="3"/>
+    <cellStyle name="一般 2 4" xfId="4"/>
+    <cellStyle name="一般 2 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,23 +1333,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1382,23 +1368,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1574,33 +1543,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="33" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="57.54296875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="73.6328125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="85.6640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="73.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="41" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="21.453125" style="11"/>
+    <col min="9" max="16384" width="21.44140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>105</v>
@@ -1609,7 +1578,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
       <c r="C2" s="12" t="s">
@@ -1622,7 +1591,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
@@ -1637,7 +1606,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
@@ -1648,7 +1617,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>5</v>
       </c>
@@ -1659,7 +1628,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="22.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1639,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>7</v>
       </c>
@@ -1681,7 +1650,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" s="21" customFormat="1" ht="16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
@@ -1704,7 +1673,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>1</v>
       </c>
@@ -1721,7 +1690,7 @@
       <c r="F9" s="25"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>2</v>
       </c>
@@ -1741,7 +1710,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -1758,7 +1727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>4</v>
       </c>
@@ -1775,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>5</v>
       </c>
@@ -1792,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="22">
         <v>6</v>
       </c>
@@ -1812,7 +1781,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="62" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>7</v>
       </c>
@@ -1829,10 +1798,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>8</v>
       </c>
@@ -1849,12 +1818,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="22">
         <v>9</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>126</v>
@@ -1872,7 +1841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>10</v>
       </c>
@@ -1889,7 +1858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="22">
         <v>11</v>
       </c>
@@ -1906,7 +1875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="22">
         <v>12</v>
       </c>
@@ -1926,7 +1895,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="22">
         <v>13</v>
       </c>
@@ -1946,12 +1915,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="22">
         <v>14</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>70</v>
@@ -1966,7 +1935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="22">
         <v>15</v>
       </c>
@@ -1983,7 +1952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="22">
         <v>16</v>
       </c>
@@ -2000,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="22">
         <v>17</v>
       </c>
@@ -2017,15 +1986,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A26" s="22">
         <v>18</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>218</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>95</v>
@@ -2034,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>19</v>
       </c>
@@ -2057,7 +2026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
         <v>20</v>
       </c>
@@ -2077,7 +2046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="22">
         <v>21</v>
       </c>
@@ -2097,7 +2066,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22">
         <v>22</v>
       </c>
@@ -2120,7 +2089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="22">
         <v>23</v>
       </c>
@@ -2140,7 +2109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="22">
         <v>24</v>
       </c>
@@ -2160,15 +2129,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="52.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22">
         <v>25</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>178</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>179</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>25</v>
@@ -2180,10 +2149,10 @@
         <v>2</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22">
         <v>26</v>
       </c>
@@ -2191,7 +2160,7 @@
         <v>116</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>25</v>
@@ -2203,18 +2172,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="22">
         <v>27</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>25</v>
@@ -2226,10 +2195,10 @@
         <v>2</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="22">
         <v>28</v>
       </c>
@@ -2249,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="22">
         <v>29</v>
       </c>
@@ -2260,7 +2229,7 @@
         <v>167</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="23" t="s">
         <v>25</v>
@@ -2272,10 +2241,10 @@
         <v>2</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="22">
         <v>30</v>
       </c>
@@ -2295,18 +2264,18 @@
         <v>2</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="22">
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="23" t="s">
         <v>25</v>
@@ -2318,10 +2287,10 @@
         <v>2</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="31" x14ac:dyDescent="0.4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>32</v>
       </c>
@@ -2329,7 +2298,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D40" s="23" t="s">
         <v>25</v>
@@ -2341,10 +2310,10 @@
         <v>2</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>33</v>
       </c>
@@ -2352,7 +2321,7 @@
         <v>122</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="23" t="s">
         <v>25</v>
@@ -2364,10 +2333,10 @@
         <v>2</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22">
         <v>34</v>
       </c>
@@ -2387,10 +2356,10 @@
         <v>2</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="22">
         <v>35</v>
       </c>
@@ -2410,10 +2379,10 @@
         <v>2</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="31" x14ac:dyDescent="0.4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A44" s="22">
         <v>36</v>
       </c>
@@ -2433,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="22">
         <v>37</v>
       </c>
@@ -2456,7 +2425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
         <v>38</v>
       </c>
@@ -2476,7 +2445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="46.5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
         <v>39</v>
       </c>
@@ -2484,7 +2453,7 @@
         <v>111</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D47" s="23" t="s">
         <v>25</v>
@@ -2496,18 +2465,18 @@
         <v>2</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
         <v>40</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D48" s="23" t="s">
         <v>25</v>
@@ -2520,15 +2489,15 @@
       </c>
       <c r="G48" s="29"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
         <v>41</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D49" s="23" t="s">
         <v>25</v>
@@ -2540,10 +2509,10 @@
         <v>2</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
         <v>42</v>
       </c>
@@ -2551,7 +2520,7 @@
         <v>69</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D50" s="23" t="s">
         <v>25</v>
@@ -2563,10 +2532,10 @@
         <v>2</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
         <v>62</v>
       </c>
@@ -2583,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
         <v>63</v>
       </c>
@@ -2600,27 +2569,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="22">
         <v>43</v>
       </c>
       <c r="B53" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="D53" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="E53" s="28">
         <v>1</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
         <v>44</v>
       </c>
@@ -2640,7 +2609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
         <v>45</v>
       </c>
@@ -2657,12 +2626,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
         <v>46</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C56" s="27" t="s">
         <v>156</v>
@@ -2674,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22">
         <v>47</v>
       </c>
@@ -2694,7 +2663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
         <v>48</v>
       </c>
@@ -2714,7 +2683,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="19.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
         <v>49</v>
       </c>
@@ -2734,7 +2703,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
         <v>50</v>
       </c>
@@ -2742,7 +2711,7 @@
         <v>131</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D60" s="23" t="s">
         <v>75</v>
@@ -2754,7 +2723,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
         <v>51</v>
       </c>
@@ -2774,7 +2743,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
         <v>52</v>
       </c>
@@ -2794,7 +2763,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="21.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
         <v>53</v>
       </c>
@@ -2814,7 +2783,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
         <v>54</v>
       </c>
@@ -2834,7 +2803,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
         <v>55</v>
       </c>
@@ -2854,7 +2823,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="22">
         <v>56</v>
       </c>
@@ -2874,7 +2843,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22">
         <v>57</v>
       </c>
@@ -2882,7 +2851,7 @@
         <v>143</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="23" t="s">
         <v>89</v>
@@ -2894,7 +2863,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <v>58</v>
       </c>
@@ -2902,7 +2871,7 @@
         <v>144</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="23" t="s">
         <v>89</v>
@@ -2914,15 +2883,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22">
         <v>59</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="23" t="s">
         <v>89</v>
@@ -2934,7 +2903,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22">
         <v>60</v>
       </c>
@@ -2942,7 +2911,7 @@
         <v>145</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D70" s="23" t="s">
         <v>89</v>
@@ -2954,7 +2923,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="22">
         <v>61</v>
       </c>
@@ -2962,7 +2931,7 @@
         <v>146</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="23" t="s">
         <v>89</v>
@@ -2974,7 +2943,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="22">
         <v>64</v>
       </c>
@@ -2989,7 +2958,7 @@
       </c>
       <c r="E72" s="28"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
         <v>65</v>
       </c>
@@ -3006,7 +2975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
         <v>66</v>
       </c>
@@ -3021,7 +2990,7 @@
       </c>
       <c r="E74" s="28"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="22">
         <v>67</v>
       </c>
@@ -3055,7 +3024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3063,15 +3032,15 @@
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>100</v>
       </c>
@@ -3093,7 +3062,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -3104,7 +3073,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
@@ -3115,7 +3084,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>164</v>
       </c>
@@ -3126,12 +3095,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
